--- a/Mapa/Tablas/Tabla.xlsx
+++ b/Mapa/Tablas/Tabla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>Ruta</t>
   </si>
@@ -34,25 +34,160 @@
     <t>2-1</t>
   </si>
   <si>
-    <t>2-3-4-7-11</t>
-  </si>
-  <si>
-    <t>2-5-6-8-12</t>
-  </si>
-  <si>
-    <t>2-5-5-9-10-13</t>
-  </si>
-  <si>
-    <t>5-2-1</t>
-  </si>
-  <si>
-    <t>9-5-5-2-1</t>
-  </si>
-  <si>
-    <t>12-8-6-5</t>
-  </si>
-  <si>
-    <t>13-10-9</t>
+    <t>2-3-4-5-7-10</t>
+  </si>
+  <si>
+    <t>2-3-4-6-8-11-14</t>
+  </si>
+  <si>
+    <t>2-3-4-6-6-9-12-30-31-32-33</t>
+  </si>
+  <si>
+    <t>2-3-4-6-6-9-12-14-16-18-20</t>
+  </si>
+  <si>
+    <t>2-3-4-6-6-9-12-14-16-17-19</t>
+  </si>
+  <si>
+    <t>2-23-24-25-26</t>
+  </si>
+  <si>
+    <t>4-5-7-10</t>
+  </si>
+  <si>
+    <t>4-6-8-11-14</t>
+  </si>
+  <si>
+    <t>4-6-6-9-12-30-31-32-33</t>
+  </si>
+  <si>
+    <t>4-6-6-9-12-14-16-18-20</t>
+  </si>
+  <si>
+    <t>4-6-6-9-12-14-16-17-19</t>
+  </si>
+  <si>
+    <t>6-4-3-2-1</t>
+  </si>
+  <si>
+    <t>6-4-3-22-21</t>
+  </si>
+  <si>
+    <t>9-29-28-27</t>
+  </si>
+  <si>
+    <t>9-6-6-4-3-2-1</t>
+  </si>
+  <si>
+    <t>9-6-6-4-3-22-21</t>
+  </si>
+  <si>
+    <t>10-7-5-4</t>
+  </si>
+  <si>
+    <t>10-26-25-24-23</t>
+  </si>
+  <si>
+    <t>10-13-15</t>
+  </si>
+  <si>
+    <t>12-30-31-32-33</t>
+  </si>
+  <si>
+    <t>12-14-16-18-20</t>
+  </si>
+  <si>
+    <t>12-14-16-17-19</t>
+  </si>
+  <si>
+    <t>14-11-8-6</t>
+  </si>
+  <si>
+    <t>14-12-9-29-28-27</t>
+  </si>
+  <si>
+    <t>14-12-9-6-6-4-3-2-1</t>
+  </si>
+  <si>
+    <t>14-12-9-6-6-4-3-22-21</t>
+  </si>
+  <si>
+    <t>15-13-10</t>
+  </si>
+  <si>
+    <t>15-17-19</t>
+  </si>
+  <si>
+    <t>15-18-20</t>
+  </si>
+  <si>
+    <t>17-15-13-10</t>
+  </si>
+  <si>
+    <t>17-16-14-11-8-6</t>
+  </si>
+  <si>
+    <t>17-16-14-12-9-29-28-27</t>
+  </si>
+  <si>
+    <t>17-16-14-12-9-6-6-4-3-2-1</t>
+  </si>
+  <si>
+    <t>17-16-14-12-9-6-6-4-3-22-21</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>18-16-14-11-8-6</t>
+  </si>
+  <si>
+    <t>18-16-14-12-9-29-28-27</t>
+  </si>
+  <si>
+    <t>18-16-14-12-9-6-6-4-3-2-1</t>
+  </si>
+  <si>
+    <t>18-16-14-12-9-6-6-4-3-22-21</t>
+  </si>
+  <si>
+    <t>18-15-13-10</t>
+  </si>
+  <si>
+    <t>18-20</t>
+  </si>
+  <si>
+    <t>22-21</t>
+  </si>
+  <si>
+    <t>22-23-24-25-26</t>
+  </si>
+  <si>
+    <t>22-3-4-5-7-10</t>
+  </si>
+  <si>
+    <t>22-3-4-6-8-11-14</t>
+  </si>
+  <si>
+    <t>22-3-4-6-6-9-12-30-31-32-33</t>
+  </si>
+  <si>
+    <t>22-3-4-6-6-9-12-14-16-18-20</t>
+  </si>
+  <si>
+    <t>22-3-4-6-6-9-12-14-16-17-19</t>
+  </si>
+  <si>
+    <t>23-22-21</t>
+  </si>
+  <si>
+    <t>23-2-1</t>
+  </si>
+  <si>
+    <t>23-24-25-26</t>
+  </si>
+  <si>
+    <t>26-10-13-15</t>
   </si>
   <si>
     <t>&lt;</t>
@@ -416,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -464,13 +599,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -498,13 +633,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,16 +647,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,16 +664,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -546,16 +681,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,16 +698,781 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Mapa/Tablas/Tabla.xlsx
+++ b/Mapa/Tablas/Tabla.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Mapa_0" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapa_1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Ruta</t>
   </si>
@@ -498,4 +499,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>